--- a/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
+++ b/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BMRESP-freight" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028" fullCalcOnLoad="1" calcCompleted="0"/>
 </workbook>
 </file>
 
@@ -733,11 +733,11 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Minnesota</t>
         </is>
       </c>
     </row>
@@ -864,11 +864,11 @@
   </sheetPr>
   <dimension ref="A1:AJ58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1">
@@ -1415,6 +1415,9 @@
         <is>
           <t>California</t>
         </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1783,9 +1786,9 @@
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="19.33203125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="19.28515625" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2620,9 +2623,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="19.33203125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="19.28515625" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
+++ b/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
@@ -731,7 +731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>

--- a/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
+++ b/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BMRESP-freight" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028" fullCalcOnLoad="1" calcCompleted="0"/>
 </workbook>
 </file>
 
@@ -731,13 +731,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Minnesota</t>
         </is>
       </c>
     </row>
@@ -864,11 +864,11 @@
   </sheetPr>
   <dimension ref="A1:AJ58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1">
@@ -1415,6 +1415,9 @@
         <is>
           <t>California</t>
         </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1783,9 +1786,9 @@
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="19.33203125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="19.28515625" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2620,9 +2623,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="19.33203125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="19.28515625" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
+++ b/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
@@ -12,7 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BMRESP-freight" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1" calcCompleted="0"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -286,7 +286,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -294,6 +294,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="105">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,6 +404,74 @@
     <cellStyle name="Hyperlink" xfId="104" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -731,13 +800,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -749,6 +818,9 @@
         <is>
           <t>Minnesota</t>
         </is>
+      </c>
+      <c r="C1" s="7" t="n">
+        <v>44307</v>
       </c>
     </row>
     <row r="3">
@@ -868,7 +940,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1">
@@ -1786,9 +1858,9 @@
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="19.28515625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="19.33203125" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2623,9 +2695,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="19.28515625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="19.33203125" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
+++ b/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
@@ -12,7 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BMRESP-freight" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028" fullCalcOnLoad="1" calcCompleted="0"/>
 </workbook>
 </file>
 
@@ -286,7 +286,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -294,7 +294,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="105">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,74 +403,6 @@
     <cellStyle name="Hyperlink" xfId="104" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -800,13 +731,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -818,9 +749,6 @@
         <is>
           <t>Minnesota</t>
         </is>
-      </c>
-      <c r="C1" s="7" t="n">
-        <v>44307</v>
       </c>
     </row>
     <row r="3">
@@ -940,7 +868,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1">
@@ -1858,9 +1786,9 @@
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="19.33203125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="19.28515625" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2695,9 +2623,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="19.33203125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="19.28515625" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
